--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1315142.448850862</v>
+        <v>1311398.51965054</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33320543.97072589</v>
+        <v>33320543.97072587</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5898131.871929465</v>
+        <v>5898131.871929464</v>
       </c>
     </row>
     <row r="9">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>421.9182721901106</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>196.6370559513447</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>417.5942214949874</v>
       </c>
       <c r="F11" t="n">
-        <v>411.7459793965841</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>293.1791103400941</v>
+        <v>383.6648885090173</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>255.1815600432283</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>28.21893018905068</v>
       </c>
       <c r="T11" t="n">
-        <v>197.8107631172787</v>
+        <v>197.8107631172786</v>
       </c>
       <c r="U11" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>347.1480046672115</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>388.9641241447767</v>
       </c>
       <c r="X11" t="n">
-        <v>403.1082628881822</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.3604865650429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>73.74958851999801</v>
+        <v>178.0576566334969</v>
       </c>
       <c r="C13" t="n">
-        <v>158.9933185033071</v>
+        <v>158.993318503307</v>
       </c>
       <c r="D13" t="n">
-        <v>152.3764369721923</v>
+        <v>152.3764369721922</v>
       </c>
       <c r="E13" t="n">
-        <v>156.2176478134699</v>
+        <v>156.2176478134698</v>
       </c>
       <c r="F13" t="n">
-        <v>163.0972075995611</v>
+        <v>163.097207599561</v>
       </c>
       <c r="G13" t="n">
-        <v>151.2509926853066</v>
+        <v>151.2509926853064</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>50.62155779981422</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>131.1394972125076</v>
+        <v>121.6136532893622</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9819759573272</v>
+        <v>227.9819759573271</v>
       </c>
       <c r="U13" t="n">
-        <v>263.7599897334442</v>
+        <v>263.7599897334441</v>
       </c>
       <c r="V13" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499735</v>
       </c>
       <c r="W13" t="n">
-        <v>257.4633644712712</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>231.0950612216214</v>
+        <v>231.0950612216213</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.3026980807325</v>
       </c>
     </row>
     <row r="14">
@@ -1606,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>410.1937988817584</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.7079110789997</v>
+        <v>419.7079110789996</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>417.5942214949874</v>
       </c>
       <c r="F14" t="n">
-        <v>411.7459793965841</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>383.6648885090174</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>255.1815600432284</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>28.21893018905069</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>171.9440050583816</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>355.9851310635877</v>
       </c>
       <c r="X14" t="n">
-        <v>403.1082628881822</v>
+        <v>403.1082628881821</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334969</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>158.993318503307</v>
       </c>
       <c r="D16" t="n">
-        <v>152.3764369721923</v>
+        <v>152.3764369721922</v>
       </c>
       <c r="E16" t="n">
-        <v>156.2176478134699</v>
+        <v>156.2176478134698</v>
       </c>
       <c r="F16" t="n">
-        <v>163.0972075995611</v>
+        <v>163.097207599561</v>
       </c>
       <c r="G16" t="n">
-        <v>151.2509926853066</v>
+        <v>151.2509926853064</v>
       </c>
       <c r="H16" t="n">
-        <v>119.177844116177</v>
+        <v>119.1778441161769</v>
       </c>
       <c r="I16" t="n">
-        <v>45.06944314268647</v>
+        <v>50.62155779981413</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>131.1394972125076</v>
+        <v>131.1394972125075</v>
       </c>
       <c r="T16" t="n">
-        <v>227.9819759573272</v>
+        <v>227.9819759573271</v>
       </c>
       <c r="U16" t="n">
-        <v>263.7599897334442</v>
+        <v>263.7599897334441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>257.4633644712712</v>
+        <v>92.91793131083742</v>
       </c>
       <c r="X16" t="n">
-        <v>231.0950612216214</v>
+        <v>231.0950612216213</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.3026980807326</v>
+        <v>213.3026980807325</v>
       </c>
     </row>
     <row r="17">
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>410.1937988817585</v>
+        <v>410.1937988817584</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>421.9182721901106</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.7079110789996</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>417.5942214949874</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>189.2484189167054</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>28.21893018905078</v>
+        <v>28.21893018905069</v>
       </c>
       <c r="T17" t="n">
-        <v>197.8107631172787</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>224.6962411883032</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>388.9641241447768</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>403.1082628881822</v>
+        <v>403.1082628881821</v>
       </c>
       <c r="Y17" t="n">
-        <v>392.3604865650429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334969</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>158.993318503307</v>
       </c>
       <c r="D19" t="n">
-        <v>152.3764369721923</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>91.72505408710046</v>
+        <v>156.2176478134698</v>
       </c>
       <c r="F19" t="n">
-        <v>163.0972075995611</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>151.2509926853066</v>
+        <v>151.2509926853064</v>
       </c>
       <c r="H19" t="n">
-        <v>119.1778441161771</v>
+        <v>119.1778441161769</v>
       </c>
       <c r="I19" t="n">
-        <v>50.62155779981422</v>
+        <v>50.62155779981413</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>131.1394972125076</v>
+        <v>9.82453147385384</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9819759573272</v>
+        <v>227.9819759573271</v>
       </c>
       <c r="U19" t="n">
-        <v>263.7599897334442</v>
+        <v>263.7599897334441</v>
       </c>
       <c r="V19" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499735</v>
       </c>
       <c r="W19" t="n">
-        <v>257.4633644712712</v>
+        <v>257.4633644712711</v>
       </c>
       <c r="X19" t="n">
-        <v>231.0950612216214</v>
+        <v>231.0950612216213</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>213.3026980807325</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>410.1937988817585</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>421.9182721901107</v>
+        <v>421.9182721901106</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.7079110789996</v>
       </c>
       <c r="E20" t="n">
-        <v>417.5942214949876</v>
+        <v>417.5942214949874</v>
       </c>
       <c r="F20" t="n">
-        <v>411.7459793965841</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>255.1815600432284</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>28.21893018905069</v>
       </c>
       <c r="T20" t="n">
-        <v>197.8107631172787</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>175.5452205158461</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>210.4780936536872</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>388.9641241447767</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>403.1082628881821</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>178.057656633497</v>
+        <v>178.0576566334969</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>152.3764369721923</v>
+        <v>124.8984864937765</v>
       </c>
       <c r="E22" t="n">
-        <v>156.2176478134699</v>
+        <v>156.2176478134698</v>
       </c>
       <c r="F22" t="n">
-        <v>163.0972075995611</v>
+        <v>163.097207599561</v>
       </c>
       <c r="G22" t="n">
-        <v>151.2509926853066</v>
+        <v>151.2509926853064</v>
       </c>
       <c r="H22" t="n">
-        <v>119.1778441161771</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>50.62155779981422</v>
+        <v>50.62155779981413</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>227.9819759573272</v>
+        <v>227.9819759573271</v>
       </c>
       <c r="U22" t="n">
-        <v>263.7599897334442</v>
+        <v>263.7599897334441</v>
       </c>
       <c r="V22" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499735</v>
       </c>
       <c r="W22" t="n">
-        <v>257.4633644712712</v>
+        <v>257.4633644712711</v>
       </c>
       <c r="X22" t="n">
-        <v>84.43926662702647</v>
+        <v>231.0950612216213</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.3026980807326</v>
+        <v>213.3026980807325</v>
       </c>
     </row>
     <row r="23">
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>410.1937988817585</v>
+        <v>410.1937988817584</v>
       </c>
       <c r="C23" t="n">
-        <v>14.54649168751822</v>
+        <v>421.9182721901106</v>
       </c>
       <c r="D23" t="n">
-        <v>419.7079110789997</v>
+        <v>419.7079110789996</v>
       </c>
       <c r="E23" t="n">
-        <v>417.5942214949876</v>
+        <v>417.5942214949874</v>
       </c>
       <c r="F23" t="n">
-        <v>411.7459793965841</v>
+        <v>411.745979396584</v>
       </c>
       <c r="G23" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090173</v>
       </c>
       <c r="H23" t="n">
         <v>255.1815600432284</v>
@@ -2374,10 +2374,10 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>244.637208665401</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>347.1480046672115</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>184.413432830021</v>
       </c>
     </row>
     <row r="24">
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>382.6245946792292</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>368.4851329160992</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
         <v>404.2032624633431</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2803,7 +2803,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>328.4187498484729</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>22.08163359889168</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,13 +2851,13 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -3031,22 +3031,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>3.898543907851608</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>368.5383374834473</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3271,19 +3271,19 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>208.3874263602938</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>87.86689488678607</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.0937685836068</v>
+        <v>14.73944708527127</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>71.27923432982972</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>433.7610480884109</v>
@@ -3514,13 +3514,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>141.5618268766131</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>342.2231950291904</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3720,16 +3720,16 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>233.0762332310165</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.0178285439537</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>136.0829573912425</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>196.2291113321752</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3900,22 +3900,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>49.34995949258617</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>82.17043591154901</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,19 +3976,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>95.01488384434751</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>249.929361179012</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4143,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>75.03117915389096</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>53.19117033386333</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>759.2520967375186</v>
+        <v>1739.121701234499</v>
       </c>
       <c r="C11" t="n">
-        <v>759.2520967375186</v>
+        <v>1312.941628315195</v>
       </c>
       <c r="D11" t="n">
-        <v>759.2520967375186</v>
+        <v>1114.318339475453</v>
       </c>
       <c r="E11" t="n">
-        <v>759.2520967375186</v>
+        <v>692.505994531021</v>
       </c>
       <c r="F11" t="n">
-        <v>343.3470670439993</v>
+        <v>692.505994531021</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>304.9657031077712</v>
       </c>
       <c r="H11" t="n">
         <v>47.20655154895474</v>
@@ -5041,13 +5041,13 @@
         <v>118.4065018001354</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K11" t="n">
         <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M11" t="n">
         <v>1131.58869045549</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="T11" t="n">
-        <v>2160.518725814122</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="U11" t="n">
-        <v>1913.410434232909</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="V11" t="n">
-        <v>1562.755884064009</v>
+        <v>2132.014755926192</v>
       </c>
       <c r="W11" t="n">
-        <v>1562.755884064009</v>
+        <v>1739.121701234499</v>
       </c>
       <c r="X11" t="n">
-        <v>1155.575820540592</v>
+        <v>1739.121701234499</v>
       </c>
       <c r="Y11" t="n">
-        <v>759.2520967375186</v>
+        <v>1739.121701234499</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E12" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F12" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
         <v>47.20655154895474</v>
@@ -5147,7 +5147,7 @@
         <v>1676.651116233592</v>
       </c>
       <c r="S12" t="n">
-        <v>1632.030085633327</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T12" t="n">
         <v>1505.938530508979</v>
@@ -5159,13 +5159,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W12" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X12" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y12" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>888.1733812193096</v>
+        <v>837.0404945528301</v>
       </c>
       <c r="C13" t="n">
-        <v>727.5740695998074</v>
+        <v>676.441182933328</v>
       </c>
       <c r="D13" t="n">
-        <v>573.6584766986031</v>
+        <v>522.5255900321238</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8628728466132</v>
+        <v>364.729986180134</v>
       </c>
       <c r="F13" t="n">
-        <v>251.1182187056424</v>
+        <v>199.9853320391633</v>
       </c>
       <c r="G13" t="n">
-        <v>98.33943821543374</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H13" t="n">
-        <v>98.33943821543374</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I13" t="n">
         <v>47.20655154895474</v>
@@ -5202,22 +5202,22 @@
         <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>564.2504555545214</v>
+        <v>564.2504555545215</v>
       </c>
       <c r="L13" t="n">
         <v>1106.331138940781</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
         <v>2343.856484770969</v>
@@ -5226,25 +5226,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2227.863438849245</v>
+        <v>2237.485503418078</v>
       </c>
       <c r="T13" t="n">
-        <v>1997.578614649924</v>
+        <v>2007.200679218758</v>
       </c>
       <c r="U13" t="n">
-        <v>1731.15438259594</v>
+        <v>1740.776447164774</v>
       </c>
       <c r="V13" t="n">
-        <v>1456.161274363644</v>
+        <v>1465.783338932477</v>
       </c>
       <c r="W13" t="n">
-        <v>1196.097269847208</v>
+        <v>1465.783338932477</v>
       </c>
       <c r="X13" t="n">
-        <v>962.6679150778934</v>
+        <v>1232.353984163163</v>
       </c>
       <c r="Y13" t="n">
-        <v>962.6679150778934</v>
+        <v>1016.896713374544</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1532.358409152823</v>
+        <v>1150.725432980485</v>
       </c>
       <c r="C14" t="n">
-        <v>1532.358409152823</v>
+        <v>1150.725432980485</v>
       </c>
       <c r="D14" t="n">
-        <v>1108.411024224541</v>
+        <v>726.7780480522031</v>
       </c>
       <c r="E14" t="n">
-        <v>1108.411024224541</v>
+        <v>304.9657031077713</v>
       </c>
       <c r="F14" t="n">
-        <v>692.5059945310213</v>
+        <v>304.9657031077713</v>
       </c>
       <c r="G14" t="n">
-        <v>304.9657031077714</v>
+        <v>304.9657031077713</v>
       </c>
       <c r="H14" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="U14" t="n">
-        <v>2113.219285866524</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="V14" t="n">
-        <v>1939.53847267624</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="W14" t="n">
-        <v>1939.53847267624</v>
+        <v>1972.242667091537</v>
       </c>
       <c r="X14" t="n">
-        <v>1532.358409152823</v>
+        <v>1565.06260356812</v>
       </c>
       <c r="Y14" t="n">
-        <v>1532.358409152823</v>
+        <v>1565.06260356812</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765402</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G15" t="n">
-        <v>79.14920158235861</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H15" t="n">
         <v>47.20655154895474</v>
@@ -5396,13 +5396,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W15" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X15" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y15" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="16">
@@ -5412,49 +5412,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>842.3475336998572</v>
+        <v>1008.55504194272</v>
       </c>
       <c r="C16" t="n">
-        <v>842.3475336998572</v>
+        <v>847.9557303232179</v>
       </c>
       <c r="D16" t="n">
-        <v>688.4319407986528</v>
+        <v>694.0401374220137</v>
       </c>
       <c r="E16" t="n">
-        <v>530.6363369466631</v>
+        <v>536.244533570024</v>
       </c>
       <c r="F16" t="n">
-        <v>365.8916828056922</v>
+        <v>371.4998794290532</v>
       </c>
       <c r="G16" t="n">
-        <v>213.1129023154836</v>
+        <v>218.7210989388447</v>
       </c>
       <c r="H16" t="n">
-        <v>92.73124159207239</v>
+        <v>98.33943821543366</v>
       </c>
       <c r="I16" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J16" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K16" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M16" t="n">
-        <v>1272.302332591134</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N16" t="n">
-        <v>1399.801244395024</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5475,13 +5475,13 @@
         <v>1731.15438259594</v>
       </c>
       <c r="W16" t="n">
-        <v>1471.090378079505</v>
+        <v>1637.297886322367</v>
       </c>
       <c r="X16" t="n">
-        <v>1237.66102331019</v>
+        <v>1403.868531553053</v>
       </c>
       <c r="Y16" t="n">
-        <v>1022.203752521571</v>
+        <v>1188.411260764434</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>47.20655154895473</v>
+        <v>1510.306373448756</v>
       </c>
       <c r="C17" t="n">
-        <v>47.20655154895473</v>
+        <v>1084.126300529452</v>
       </c>
       <c r="D17" t="n">
-        <v>47.20655154895473</v>
+        <v>660.1789156011698</v>
       </c>
       <c r="E17" t="n">
-        <v>47.20655154895473</v>
+        <v>238.366570656738</v>
       </c>
       <c r="F17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L17" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N17" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5545,22 +5545,22 @@
         <v>2331.823607559807</v>
       </c>
       <c r="T17" t="n">
-        <v>2132.014755926192</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="U17" t="n">
-        <v>1884.906464344979</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="V17" t="n">
-        <v>1657.940564154773</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="W17" t="n">
-        <v>1265.04750946308</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="X17" t="n">
-        <v>857.8674459396632</v>
+        <v>1924.643544036391</v>
       </c>
       <c r="Y17" t="n">
-        <v>461.5437221365896</v>
+        <v>1924.643544036391</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5600,10 +5600,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M18" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>782.8116962561788</v>
+        <v>689.894794900545</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8116962561788</v>
+        <v>529.2954832810429</v>
       </c>
       <c r="D19" t="n">
-        <v>628.8961033549745</v>
+        <v>529.2954832810429</v>
       </c>
       <c r="E19" t="n">
-        <v>536.2445335700245</v>
+        <v>371.4998794290532</v>
       </c>
       <c r="F19" t="n">
-        <v>371.4998794290536</v>
+        <v>371.4998794290532</v>
       </c>
       <c r="G19" t="n">
-        <v>218.7210989388449</v>
+        <v>218.7210989388447</v>
       </c>
       <c r="H19" t="n">
-        <v>98.33943821543374</v>
+        <v>98.33943821543366</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L19" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M19" t="n">
-        <v>1412.355695376305</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N19" t="n">
-        <v>1539.854607180195</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5700,25 +5700,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2227.863438849244</v>
+        <v>2350.403808282228</v>
       </c>
       <c r="T19" t="n">
-        <v>1997.578614649924</v>
+        <v>2120.118984082908</v>
       </c>
       <c r="U19" t="n">
-        <v>1731.15438259594</v>
+        <v>1853.694752028924</v>
       </c>
       <c r="V19" t="n">
-        <v>1456.161274363643</v>
+        <v>1578.701643796628</v>
       </c>
       <c r="W19" t="n">
-        <v>1196.097269847208</v>
+        <v>1318.637639280192</v>
       </c>
       <c r="X19" t="n">
-        <v>962.667915077893</v>
+        <v>1085.208284510878</v>
       </c>
       <c r="Y19" t="n">
-        <v>962.667915077893</v>
+        <v>869.751013722259</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1568.863150665026</v>
+        <v>1319.146354340973</v>
       </c>
       <c r="C20" t="n">
-        <v>1142.683077745723</v>
+        <v>892.966281421669</v>
       </c>
       <c r="D20" t="n">
-        <v>1142.683077745723</v>
+        <v>469.0188964933865</v>
       </c>
       <c r="E20" t="n">
-        <v>720.8707328012907</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F20" t="n">
-        <v>304.9657031077714</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G20" t="n">
-        <v>304.9657031077714</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L20" t="n">
         <v>805.440802286702</v>
@@ -5779,25 +5779,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="T20" t="n">
-        <v>2160.518725814122</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="U20" t="n">
-        <v>1983.200321252661</v>
+        <v>2331.823607559807</v>
       </c>
       <c r="V20" t="n">
-        <v>1983.200321252661</v>
+        <v>2119.219472556083</v>
       </c>
       <c r="W20" t="n">
-        <v>1983.200321252661</v>
+        <v>1726.326417864389</v>
       </c>
       <c r="X20" t="n">
-        <v>1983.200321252661</v>
+        <v>1319.146354340973</v>
       </c>
       <c r="Y20" t="n">
-        <v>1983.200321252661</v>
+        <v>1319.146354340973</v>
       </c>
     </row>
     <row r="21">
@@ -5810,25 +5810,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E21" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F21" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G21" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,49 +5886,49 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.9557303232187</v>
+        <v>699.8185640660538</v>
       </c>
       <c r="C22" t="n">
-        <v>847.9557303232187</v>
+        <v>699.8185640660538</v>
       </c>
       <c r="D22" t="n">
-        <v>694.0401374220144</v>
+        <v>573.6584766986027</v>
       </c>
       <c r="E22" t="n">
-        <v>536.2445335700245</v>
+        <v>415.862872846613</v>
       </c>
       <c r="F22" t="n">
-        <v>371.4998794290536</v>
+        <v>251.1182187056422</v>
       </c>
       <c r="G22" t="n">
-        <v>218.7210989388449</v>
+        <v>98.33943821543366</v>
       </c>
       <c r="H22" t="n">
-        <v>98.33943821543374</v>
+        <v>98.33943821543366</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>744.992999204955</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>875.5973915434845</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1445.355106505019</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>1982.790237078561</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5940,22 +5940,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T22" t="n">
-        <v>2130.042753248416</v>
+        <v>2130.042753248417</v>
       </c>
       <c r="U22" t="n">
-        <v>1863.618521194432</v>
+        <v>1863.618521194433</v>
       </c>
       <c r="V22" t="n">
-        <v>1588.625412962135</v>
+        <v>1588.625412962136</v>
       </c>
       <c r="W22" t="n">
-        <v>1328.5614084457</v>
+        <v>1328.561408445701</v>
       </c>
       <c r="X22" t="n">
-        <v>1243.269219933552</v>
+        <v>1095.132053676386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1027.811949144933</v>
+        <v>879.6747828877678</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1981.530233410248</v>
+        <v>2393.016880382563</v>
       </c>
       <c r="C23" t="n">
         <v>1966.83680746326</v>
       </c>
       <c r="D23" t="n">
-        <v>1542.889422534978</v>
+        <v>1542.889422534977</v>
       </c>
       <c r="E23" t="n">
         <v>1121.077077590546</v>
       </c>
       <c r="F23" t="n">
-        <v>705.1720478970265</v>
+        <v>705.1720478970262</v>
       </c>
       <c r="G23" t="n">
-        <v>317.6317564737766</v>
+        <v>317.6317564737765</v>
       </c>
       <c r="H23" t="n">
         <v>59.87260491495994</v>
@@ -5989,28 +5989,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J23" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K23" t="n">
-        <v>524.9909807888067</v>
+        <v>976.4735309700052</v>
       </c>
       <c r="L23" t="n">
-        <v>818.1068556527074</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M23" t="n">
-        <v>1144.254743821495</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N23" t="n">
-        <v>1475.680045797972</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O23" t="n">
-        <v>1788.635560339265</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P23" t="n">
-        <v>2136.030175641227</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q23" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R23" t="n">
         <v>2993.630245747997</v>
@@ -6022,19 +6022,19 @@
         <v>2993.630245747997</v>
       </c>
       <c r="U23" t="n">
-        <v>2746.521954166784</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V23" t="n">
-        <v>2395.867403997883</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="W23" t="n">
-        <v>2395.867403997883</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="X23" t="n">
-        <v>2395.867403997883</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="Y23" t="n">
-        <v>2395.867403997883</v>
+        <v>2807.354050970198</v>
       </c>
     </row>
     <row r="24">
@@ -6065,19 +6065,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I24" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643598</v>
       </c>
       <c r="J24" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K24" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L24" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M24" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N24" t="n">
         <v>1074.527417586113</v>
@@ -6132,10 +6132,10 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E25" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F25" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G25" t="n">
         <v>255.311952099396</v>
@@ -6153,16 +6153,16 @@
         <v>576.9165089205267</v>
       </c>
       <c r="L25" t="n">
-        <v>941.1489457440381</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M25" t="n">
-        <v>1531.237205263481</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N25" t="n">
-        <v>2100.994920225015</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O25" t="n">
-        <v>2638.430050798558</v>
+        <v>2398.068415593345</v>
       </c>
       <c r="P25" t="n">
         <v>2739.199106976242</v>
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1754.189096973776</v>
+        <v>1323.152510651831</v>
       </c>
       <c r="C26" t="n">
-        <v>1316.046624157199</v>
+        <v>1323.152510651831</v>
       </c>
       <c r="D26" t="n">
-        <v>880.1368393316438</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="E26" t="n">
-        <v>446.362094489939</v>
+        <v>887.2427258262751</v>
       </c>
       <c r="F26" t="n">
-        <v>59.87260491495994</v>
+        <v>459.3752962354828</v>
       </c>
       <c r="G26" t="n">
         <v>59.87260491495994</v>
@@ -6229,22 +6229,22 @@
         <v>723.9740178625037</v>
       </c>
       <c r="K26" t="n">
-        <v>976.4735309700051</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L26" t="n">
-        <v>1269.589405833906</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M26" t="n">
-        <v>1595.737294002693</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N26" t="n">
-        <v>1927.16259597917</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O26" t="n">
-        <v>2240.118110520463</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P26" t="n">
-        <v>2507.218401699732</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q26" t="n">
         <v>2707.7995967108</v>
@@ -6256,22 +6256,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T26" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U26" t="n">
-        <v>2993.630245747997</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="V26" t="n">
-        <v>2993.630245747997</v>
+        <v>2522.788302738623</v>
       </c>
       <c r="W26" t="n">
-        <v>2588.77479115903</v>
+        <v>2150.581097772867</v>
       </c>
       <c r="X26" t="n">
-        <v>2588.77479115903</v>
+        <v>1731.438634352177</v>
       </c>
       <c r="Y26" t="n">
-        <v>2180.488667458684</v>
+        <v>1323.152510651831</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>555.2373584323961</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>448.7808972690384</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>353.6906084155917</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>259.5701937425454</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>176.186355358707</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
         <v>91.81525494836369</v>
@@ -6302,19 +6302,19 @@
         <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>94.08934108643605</v>
+        <v>94.08934108643598</v>
       </c>
       <c r="J27" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K27" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L27" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M27" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N27" t="n">
         <v>1074.527417586113</v>
@@ -6341,16 +6341,16 @@
         <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>1143.217228760865</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W27" t="n">
-        <v>957.8944744940586</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>803.0270387329385</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>676.5412595121593</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6369,10 +6369,10 @@
         <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>596.7601865251213</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F28" t="n">
-        <v>420.0531324868775</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
         <v>255.311952099396</v>
@@ -6384,16 +6384,16 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>205.3579537818329</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K28" t="n">
-        <v>302.1580543493911</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L28" t="n">
-        <v>761.8348266380285</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M28" t="n">
-        <v>1351.923086157471</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N28" t="n">
         <v>1921.680801119005</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1699.43571835685</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C29" t="n">
-        <v>1261.293245540274</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D29" t="n">
-        <v>825.3834607147182</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E29" t="n">
-        <v>391.6087158730134</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F29" t="n">
         <v>59.87260491495994</v>
@@ -6463,52 +6463,52 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K29" t="n">
-        <v>1029.642816232215</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L29" t="n">
-        <v>1438.743470586963</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M29" t="n">
-        <v>1764.89135875575</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N29" t="n">
-        <v>2096.316660732227</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O29" t="n">
-        <v>2409.27217527352</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P29" t="n">
-        <v>2676.372466452789</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q29" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
         <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2953.163875962794</v>
+        <v>2971.325565345076</v>
       </c>
       <c r="T29" t="n">
-        <v>2953.163875962794</v>
+        <v>2971.325565345076</v>
       </c>
       <c r="U29" t="n">
-        <v>2953.163875962794</v>
+        <v>2971.325565345076</v>
       </c>
       <c r="V29" t="n">
-        <v>2953.163875962794</v>
+        <v>2608.708615278902</v>
       </c>
       <c r="W29" t="n">
-        <v>2953.163875962794</v>
+        <v>2203.853160689936</v>
       </c>
       <c r="X29" t="n">
-        <v>2534.021412542105</v>
+        <v>2203.853160689936</v>
       </c>
       <c r="Y29" t="n">
-        <v>2125.735288841758</v>
+        <v>1795.567036989589</v>
       </c>
     </row>
     <row r="30">
@@ -6542,13 +6542,13 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K30" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L30" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M30" t="n">
         <v>816.053756664793</v>
@@ -6600,13 +6600,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D31" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F31" t="n">
         <v>420.0531324868776</v>
@@ -6621,25 +6621,25 @@
         <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>118.7782686171431</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K31" t="n">
-        <v>215.5783691847013</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L31" t="n">
-        <v>757.6590525709603</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M31" t="n">
-        <v>1347.747312090403</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N31" t="n">
-        <v>1917.505027051937</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O31" t="n">
-        <v>2454.94015762548</v>
+        <v>2398.068415593345</v>
       </c>
       <c r="P31" t="n">
-        <v>2903.216107773505</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q31" t="n">
         <v>2977.159153071229</v>
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2195.069728310112</v>
+        <v>1165.006632517128</v>
       </c>
       <c r="C32" t="n">
-        <v>1756.927255493536</v>
+        <v>1165.006632517128</v>
       </c>
       <c r="D32" t="n">
-        <v>1321.01747066798</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="E32" t="n">
-        <v>887.2427258262751</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="F32" t="n">
-        <v>459.3752962354828</v>
+        <v>729.0968476915723</v>
       </c>
       <c r="G32" t="n">
-        <v>59.87260491495994</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H32" t="n">
         <v>59.87260491495994</v>
@@ -6700,28 +6700,28 @@
         <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>288.7193304095858</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>524.9909807888067</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>818.1068556527074</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1144.254743821495</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1475.680045797972</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1788.635560339265</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2136.030175641227</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2876.953661463856</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R32" t="n">
         <v>2993.630245747997</v>
@@ -6730,22 +6730,22 @@
         <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2993.630245747997</v>
+        <v>2781.858994217109</v>
       </c>
       <c r="U32" t="n">
-        <v>2993.630245747997</v>
+        <v>2777.921071077865</v>
       </c>
       <c r="V32" t="n">
-        <v>2993.630245747997</v>
+        <v>2415.304121011692</v>
       </c>
       <c r="W32" t="n">
-        <v>2993.630245747997</v>
+        <v>2010.448666422725</v>
       </c>
       <c r="X32" t="n">
-        <v>2993.630245747997</v>
+        <v>1591.306203002036</v>
       </c>
       <c r="Y32" t="n">
-        <v>2621.36929879502</v>
+        <v>1591.306203002036</v>
       </c>
     </row>
     <row r="33">
@@ -6779,16 +6779,16 @@
         <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>187.9826804329032</v>
+        <v>187.9826804329031</v>
       </c>
       <c r="K33" t="n">
-        <v>348.4613524870734</v>
+        <v>348.4613524870733</v>
       </c>
       <c r="L33" t="n">
-        <v>564.2447313620958</v>
+        <v>564.2447313620956</v>
       </c>
       <c r="M33" t="n">
-        <v>816.0537566647931</v>
+        <v>816.053756664793</v>
       </c>
       <c r="N33" t="n">
         <v>1074.527417586113</v>
@@ -6837,13 +6837,13 @@
         <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>932.3961830728614</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
         <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>596.7601865251214</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
         <v>420.0531324868776</v>
@@ -6861,22 +6861,22 @@
         <v>118.7782686171431</v>
       </c>
       <c r="K34" t="n">
-        <v>490.3368237558368</v>
+        <v>219.7541432517691</v>
       </c>
       <c r="L34" t="n">
-        <v>1032.417507142096</v>
+        <v>761.8348266380279</v>
       </c>
       <c r="M34" t="n">
-        <v>1622.505766661538</v>
+        <v>1351.92308615747</v>
       </c>
       <c r="N34" t="n">
-        <v>2192.263481623072</v>
+        <v>1921.680801119005</v>
       </c>
       <c r="O34" t="n">
-        <v>2638.430050798558</v>
+        <v>2459.115931692548</v>
       </c>
       <c r="P34" t="n">
-        <v>2739.199106976242</v>
+        <v>2907.391881840573</v>
       </c>
       <c r="Q34" t="n">
         <v>2977.159153071229</v>
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>657.2015927283602</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="C35" t="n">
-        <v>657.2015927283602</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="D35" t="n">
-        <v>657.2015927283602</v>
+        <v>1178.570277437541</v>
       </c>
       <c r="E35" t="n">
-        <v>657.2015927283602</v>
+        <v>744.7955325958366</v>
       </c>
       <c r="F35" t="n">
-        <v>657.2015927283602</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G35" t="n">
-        <v>257.6989014078374</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I35" t="n">
         <v>118.4065018001353</v>
@@ -6940,19 +6940,19 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
         <v>2043.069798152528</v>
@@ -6961,28 +6961,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R35" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T35" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U35" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V35" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W35" t="n">
-        <v>1484.630179849396</v>
+        <v>1703.234501542679</v>
       </c>
       <c r="X35" t="n">
-        <v>1065.487716428707</v>
+        <v>1614.480062263097</v>
       </c>
       <c r="Y35" t="n">
-        <v>657.2015927283602</v>
+        <v>1614.480062263097</v>
       </c>
     </row>
     <row r="36">
@@ -7010,7 +7010,7 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043084</v>
@@ -7071,55 +7071,55 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>686.6115078231581</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C37" t="n">
-        <v>514.0497963063831</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D37" t="n">
-        <v>514.0497963063831</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E37" t="n">
-        <v>344.2917925571204</v>
+        <v>301.8972225401134</v>
       </c>
       <c r="F37" t="n">
-        <v>344.2917925571204</v>
+        <v>125.1901685018696</v>
       </c>
       <c r="G37" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K37" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L37" t="n">
-        <v>733.4227107706869</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M37" t="n">
-        <v>1317.603786189002</v>
+        <v>1603.932529194405</v>
       </c>
       <c r="N37" t="n">
-        <v>1887.361501150536</v>
+        <v>2055.554276014867</v>
       </c>
       <c r="O37" t="n">
-        <v>2005.127382498297</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P37" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S37" t="n">
         <v>2215.901038951971</v>
@@ -7131,16 +7131,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V37" t="n">
-        <v>1623.267956308333</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W37" t="n">
-        <v>1351.241551894625</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X37" t="n">
-        <v>1105.849797228037</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.4301265421452</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="38">
@@ -7150,31 +7150,31 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1588.348011983849</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="C38" t="n">
-        <v>1150.205539167272</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="D38" t="n">
-        <v>1150.205539167272</v>
+        <v>1451.343161621786</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255671</v>
+        <v>1017.568416780081</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>589.7009871892888</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>190.1982958687659</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K38" t="n">
         <v>512.3249274228014</v>
@@ -7198,28 +7198,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S38" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T38" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U38" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V38" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="W38" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="X38" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="Y38" t="n">
-        <v>2014.647582468756</v>
+        <v>1889.485634438362</v>
       </c>
     </row>
     <row r="39">
@@ -7247,10 +7247,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
         <v>175.316627066898</v>
@@ -7259,10 +7259,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M39" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1029.196554659879</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C40" t="n">
-        <v>856.6348431431041</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D40" t="n">
-        <v>690.7568503446269</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E40" t="n">
-        <v>520.9988465953642</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>344.2917925571204</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>179.5506121696388</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895473</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K40" t="n">
-        <v>289.4920009833859</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>413.3628026016839</v>
+        <v>554.108591664677</v>
       </c>
       <c r="M40" t="n">
-        <v>997.5438780199986</v>
+        <v>1138.289667082992</v>
       </c>
       <c r="N40" t="n">
-        <v>1567.301592981533</v>
+        <v>1708.047382044526</v>
       </c>
       <c r="O40" t="n">
-        <v>2104.736723555076</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
         <v>2274.089213540313</v>
@@ -7356,7 +7356,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S40" t="n">
         <v>2215.901038951971</v>
@@ -7368,16 +7368,16 @@
         <v>1695.267182904121</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1459.836644286932</v>
       </c>
       <c r="X40" t="n">
-        <v>1136.285270360843</v>
+        <v>1214.444889620345</v>
       </c>
       <c r="Y40" t="n">
-        <v>1029.196554659879</v>
+        <v>987.0252189344528</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C41" t="n">
-        <v>1881.718734845957</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D41" t="n">
-        <v>1445.808950020401</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E41" t="n">
-        <v>1012.034205178697</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F41" t="n">
-        <v>584.1667755879043</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>184.6640842673815</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
         <v>2043.069798152528</v>
@@ -7438,25 +7438,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2162.116353879883</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1903.045662401397</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1540.428712335223</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1135.573257746256</v>
       </c>
       <c r="X41" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="Y41" t="n">
-        <v>2319.861207662534</v>
+        <v>716.4307943255671</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J42" t="n">
         <v>175.316627066898</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>616.0817647851416</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C43" t="n">
-        <v>443.5200532683665</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="D43" t="n">
-        <v>443.5200532683665</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="E43" t="n">
-        <v>273.7620495191038</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="F43" t="n">
-        <v>97.05499548085996</v>
+        <v>294.9481722511323</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895473</v>
+        <v>130.2069918636507</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895473</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>901.6154856350188</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1485.796561053334</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N43" t="n">
-        <v>2055.554276014868</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V43" t="n">
-        <v>1552.738213270316</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W43" t="n">
-        <v>1280.711808856608</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X43" t="n">
-        <v>1035.320054190021</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y43" t="n">
-        <v>807.9003835041287</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>921.2588091910869</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="C44" t="n">
-        <v>483.1163363745102</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D44" t="n">
-        <v>47.20655154895474</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895474</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L44" t="n">
         <v>805.440802286702</v>
@@ -7672,28 +7672,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2107.873677266916</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>1745.256727200743</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W44" t="n">
-        <v>1340.401272611776</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="X44" t="n">
-        <v>921.2588091910869</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="Y44" t="n">
-        <v>921.2588091910869</v>
+        <v>1440.733140952813</v>
       </c>
     </row>
     <row r="45">
@@ -7721,10 +7721,10 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043091</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7782,58 +7782,58 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>807.9003835041287</v>
+        <v>616.0817647851411</v>
       </c>
       <c r="C46" t="n">
-        <v>635.3386719873537</v>
+        <v>443.520053268366</v>
       </c>
       <c r="D46" t="n">
-        <v>469.4606791888764</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="E46" t="n">
-        <v>299.7026754396136</v>
+        <v>277.6420604698887</v>
       </c>
       <c r="F46" t="n">
-        <v>122.9956214013698</v>
+        <v>100.935006431645</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895473</v>
+        <v>100.935006431645</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895473</v>
+        <v>100.935006431645</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K46" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L46" t="n">
-        <v>413.3628026016838</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M46" t="n">
-        <v>992.686446150523</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1120.185357954412</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T46" t="n">
         <v>2118.080353351143</v>
@@ -7848,10 +7848,10 @@
         <v>1280.711808856608</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>1035.32005419002</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041287</v>
+        <v>807.9003835041283</v>
       </c>
     </row>
   </sheetData>
@@ -8856,16 +8856,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371571</v>
+        <v>177.19208494646</v>
       </c>
       <c r="N13" t="n">
-        <v>70.05088382580902</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M16" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>141.4680432173448</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9321,19 +9321,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>177.1920849464598</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>253.9135309266337</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
@@ -9570,16 +9570,16 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P22" t="n">
-        <v>192.4544649334023</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>16.39178053361661</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9655,13 +9655,13 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>81.10537790171043</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>545.8002937490523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9801,7 +9801,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>242.7895305103167</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>242.7895305103166</v>
       </c>
       <c r="Q25" t="n">
         <v>169.8916917821538</v>
@@ -9877,7 +9877,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>16.3917805336165</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R26" t="n">
         <v>170.8626916697543</v>
@@ -10032,13 +10032,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>4.217953603098806</v>
       </c>
       <c r="L28" t="n">
-        <v>339.1979501720601</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
         <v>464.1251183645587</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>509.7493287307154</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>117.1563429200475</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>16.39178053361661</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10269,13 +10269,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645587</v>
@@ -10287,10 +10287,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>351.0170646165068</v>
+        <v>242.7895305103166</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.217953603099645</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>81.10537790171043</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>545.8002937490523</v>
+        <v>16.39178053361684</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10509,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>277.5337924960966</v>
+        <v>4.217953603098806</v>
       </c>
       <c r="L34" t="n">
         <v>422.4342240080415</v>
@@ -10521,13 +10521,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>331.71786649265</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10743,19 +10743,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>45.75904403825002</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N37" t="n">
-        <v>446.7260637956006</v>
+        <v>327.3968030470432</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10980,13 +10980,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>229.6216911390738</v>
       </c>
       <c r="M40" t="n">
         <v>458.1582657371569</v>
@@ -10995,10 +10995,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>69.27619576520556</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>303.1049632594841</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,16 +11454,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>453.2517688993028</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -11475,7 +11475,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639881</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>410.1937988817585</v>
+        <v>410.1937988817584</v>
       </c>
       <c r="C11" t="n">
-        <v>421.9182721901107</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.7079110789997</v>
+        <v>223.0708551276549</v>
       </c>
       <c r="E11" t="n">
-        <v>417.5942214949876</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>411.745979396584</v>
       </c>
       <c r="G11" t="n">
-        <v>90.48577816892328</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>255.1815600432284</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>28.21893018905077</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>244.6372086654009</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W11" t="n">
-        <v>388.9641241447768</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>403.1082628881821</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.3604865650428</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>104.308068113499</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>119.1778441161771</v>
+        <v>119.1778441161769</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>50.62155779981413</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>9.525843923145345</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>257.4633644712711</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>213.3026980807326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>410.1937988817585</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>421.9182721901107</v>
+        <v>421.9182721901106</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>417.5942214949876</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.745979396584</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>383.6648885090173</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>28.21893018905079</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>197.8107631172787</v>
+        <v>197.8107631172786</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>244.6372086654009</v>
       </c>
       <c r="V14" t="n">
-        <v>175.2039996088299</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W14" t="n">
-        <v>388.9641241447768</v>
+        <v>32.97899308118895</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.3604865650429</v>
+        <v>392.3604865650428</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>158.9933185033071</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>5.552114657127746</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,10 +23712,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>272.2431771499736</v>
+        <v>272.2431771499735</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>164.5454331604336</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,19 +23734,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>421.9182721901107</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.7079110789997</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>417.5942214949876</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>411.7459793965841</v>
+        <v>222.4975604798786</v>
       </c>
       <c r="G17" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090173</v>
       </c>
       <c r="H17" t="n">
         <v>255.1815600432284</v>
@@ -23785,22 +23785,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>197.8107631172786</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>244.6372086654009</v>
       </c>
       <c r="V17" t="n">
-        <v>122.4517634789083</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>388.9641241447767</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>392.3604865650428</v>
       </c>
     </row>
     <row r="18">
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>158.9933185033071</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>152.3764369721922</v>
       </c>
       <c r="E19" t="n">
-        <v>64.49259372636945</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>163.097207599561</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>121.3149657386537</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.3026980807326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>410.1937988817584</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.7079110789997</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>411.745979396584</v>
       </c>
       <c r="G20" t="n">
-        <v>383.6648885090174</v>
+        <v>383.6648885090173</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>255.1815600432284</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>28.21893018905078</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>197.8107631172786</v>
       </c>
       <c r="U20" t="n">
-        <v>69.09198814955485</v>
+        <v>244.6372086654009</v>
       </c>
       <c r="V20" t="n">
-        <v>347.1480046672115</v>
+        <v>136.6699110135243</v>
       </c>
       <c r="W20" t="n">
-        <v>388.9641241447768</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>403.1082628881822</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.3604865650429</v>
+        <v>392.3604865650428</v>
       </c>
     </row>
     <row r="21">
@@ -24129,10 +24129,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>158.9933185033071</v>
+        <v>158.993318503307</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>27.47795047841566</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>119.1778441161769</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>131.1394972125076</v>
+        <v>131.1394972125075</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>146.655794594595</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24208,7 +24208,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>407.3717805025925</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>28.21893018905078</v>
+        <v>28.21893018905069</v>
       </c>
       <c r="T23" t="n">
-        <v>197.8107631172787</v>
+        <v>197.8107631172786</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>244.6372086654009</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>347.1480046672114</v>
       </c>
       <c r="W23" t="n">
-        <v>388.9641241447768</v>
+        <v>388.9641241447767</v>
       </c>
       <c r="X23" t="n">
-        <v>403.1082628881822</v>
+        <v>403.1082628881821</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.3604865650429</v>
+        <v>207.9470537350218</v>
       </c>
     </row>
     <row r="24">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>40.96416061565509</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>267.0243359415286</v>
@@ -24496,19 +24496,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>32.32176712697782</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>95.17000544641138</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>17.98007248845931</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24739,13 +24739,13 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24919,22 +24919,22 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>252.5814406558496</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>35.66492497989583</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25159,19 +25159,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>58.63690958123489</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -25219,10 +25219,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>327.0841438996963</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>148.3543214983355</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>212.8067187184441</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>125.4625090649156</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655117</v>
@@ -25459,7 +25459,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>61.98006743415272</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>36.22990713855486</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>119.1276454350791</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>130.9413785502862</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>13.42442768340374</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>113.7438090910206</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>48.85018410292825</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,19 +25864,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>327.0216909357111</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>395.5076644073176</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>6.550623384689146</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>88.0625894297158</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>9.273163364251104</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>290881.27156581</v>
+        <v>290881.2715658101</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>290881.27156581</v>
+        <v>290881.2715658101</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>290881.27156581</v>
+        <v>290881.2715658101</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>290881.27156581</v>
+        <v>290881.2715658102</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>370729.3485895952</v>
+        <v>370729.3485895953</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>276475.9558186356</v>
+        <v>276475.9558186355</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>276475.9558186356</v>
+        <v>276475.9558186355</v>
       </c>
     </row>
     <row r="16">
@@ -26319,16 +26319,16 @@
         <v>484130.7854230572</v>
       </c>
       <c r="D2" t="n">
-        <v>484130.7854230571</v>
+        <v>484130.7854230572</v>
       </c>
       <c r="E2" t="n">
-        <v>307151.9215321323</v>
+        <v>307151.921532132</v>
       </c>
       <c r="F2" t="n">
-        <v>307151.9215321318</v>
+        <v>307151.9215321321</v>
       </c>
       <c r="G2" t="n">
-        <v>307151.9215321318</v>
+        <v>307151.9215321322</v>
       </c>
       <c r="H2" t="n">
         <v>307151.921532132</v>
@@ -26340,22 +26340,22 @@
         <v>349881.3576475701</v>
       </c>
       <c r="K2" t="n">
-        <v>349881.3576475701</v>
+        <v>349881.3576475702</v>
       </c>
       <c r="L2" t="n">
         <v>349881.3576475701</v>
       </c>
       <c r="M2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="N2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="O2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
       <c r="P2" t="n">
-        <v>291000.506906512</v>
+        <v>291000.5069065119</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560609.421709316</v>
+        <v>560609.4217093161</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42102.11971426838</v>
+        <v>42102.11971426835</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>27368.89005281215</v>
+        <v>27368.89005281224</v>
       </c>
       <c r="F4" t="n">
-        <v>27368.89005281216</v>
+        <v>27368.89005281223</v>
       </c>
       <c r="G4" t="n">
-        <v>27368.89005281216</v>
+        <v>27368.89005281223</v>
       </c>
       <c r="H4" t="n">
-        <v>27368.89005281215</v>
+        <v>27368.89005281224</v>
       </c>
       <c r="I4" t="n">
-        <v>55882.93133233114</v>
+        <v>55882.9313323312</v>
       </c>
       <c r="J4" t="n">
-        <v>48350.18179108917</v>
+        <v>48350.18179108918</v>
       </c>
       <c r="K4" t="n">
         <v>48350.18179108918</v>
       </c>
       <c r="L4" t="n">
-        <v>48350.18179108917</v>
+        <v>48350.18179108918</v>
       </c>
       <c r="M4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="N4" t="n">
         <v>17402.7325477806</v>
       </c>
       <c r="O4" t="n">
+        <v>17402.73254778062</v>
+      </c>
+      <c r="P4" t="n">
         <v>17402.7325477806</v>
-      </c>
-      <c r="P4" t="n">
-        <v>17402.73254778061</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>47046.69153663202</v>
+        <v>47046.69153663203</v>
       </c>
       <c r="F5" t="n">
         <v>47046.69153663202</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>151772.4691112244</v>
+        <v>151740.5623937227</v>
       </c>
       <c r="C6" t="n">
-        <v>151772.4691112244</v>
+        <v>151740.5623937227</v>
       </c>
       <c r="D6" t="n">
-        <v>151772.4691112243</v>
+        <v>151740.5623937228</v>
       </c>
       <c r="E6" t="n">
-        <v>-327873.0817666278</v>
+        <v>-328383.3097378891</v>
       </c>
       <c r="F6" t="n">
-        <v>232736.3399426877</v>
+        <v>232226.1119714271</v>
       </c>
       <c r="G6" t="n">
-        <v>232736.3399426877</v>
+        <v>232226.1119714272</v>
       </c>
       <c r="H6" t="n">
-        <v>232736.3399426878</v>
+        <v>232226.111971427</v>
       </c>
       <c r="I6" t="n">
-        <v>207431.1847576606</v>
+        <v>207069.4357225265</v>
       </c>
       <c r="J6" t="n">
-        <v>245853.8940886791</v>
+        <v>245459.1510798925</v>
       </c>
       <c r="K6" t="n">
-        <v>245853.8940886791</v>
+        <v>245459.1510798926</v>
       </c>
       <c r="L6" t="n">
-        <v>245853.8940886791</v>
+        <v>245459.1510798925</v>
       </c>
       <c r="M6" t="n">
-        <v>119951.3142842966</v>
+        <v>119397.4338410746</v>
       </c>
       <c r="N6" t="n">
-        <v>227546.6931490936</v>
+        <v>226992.8127058715</v>
       </c>
       <c r="O6" t="n">
-        <v>227546.6931490936</v>
+        <v>226992.8127058715</v>
       </c>
       <c r="P6" t="n">
-        <v>227546.6931490935</v>
+        <v>226992.8127058715</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26749,37 +26749,37 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="H3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="N3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
     </row>
     <row r="4">
@@ -26804,10 +26804,10 @@
         <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="I4" t="n">
         <v>748.4075614369992</v>
@@ -26822,16 +26822,16 @@
         <v>748.4075614369992</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="P4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>158.3256670750651</v>
+        <v>158.325667075065</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>431.7562272868691</v>
+        <v>431.756227286869</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="12">
@@ -28247,28 +28247,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -28298,25 +28298,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y14" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="15">
@@ -28484,28 +28484,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28535,25 +28535,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="18">
@@ -28721,28 +28721,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28772,25 +28772,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y20" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="21">
@@ -28958,28 +28958,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29009,25 +29009,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="23">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="C23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="D23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="E23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="F23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="G23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="H23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="T23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="U23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="V23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="W23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="X23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
       <c r="Y23" t="n">
-        <v>11.84277589830021</v>
+        <v>11.84277589830031</v>
       </c>
     </row>
     <row r="24">
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32232,28 +32232,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I17" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J17" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q17" t="n">
         <v>202.6072676879471</v>
@@ -32265,7 +32265,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T17" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U17" t="n">
         <v>0.1500950924520911</v>
@@ -32308,13 +32308,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H18" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I18" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -32326,25 +32326,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R18" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S18" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T18" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U18" t="n">
         <v>0.06604272567356906</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H19" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I19" t="n">
         <v>25.30901603495698</v>
@@ -32396,7 +32396,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L19" t="n">
         <v>125.1220218366646</v>
@@ -32420,10 +32420,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S19" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T19" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U19" t="n">
         <v>0.04590510768130049</v>
@@ -32469,28 +32469,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I20" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J20" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -32502,7 +32502,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T20" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U20" t="n">
         <v>0.1500950924520911</v>
@@ -32545,13 +32545,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H21" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I21" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -32563,25 +32563,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N21" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O21" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P21" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q21" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R21" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S21" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T21" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U21" t="n">
         <v>0.06604272567356906</v>
@@ -32621,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H22" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I22" t="n">
         <v>25.30901603495698</v>
@@ -32633,7 +32633,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L22" t="n">
         <v>125.1220218366646</v>
@@ -32657,10 +32657,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S22" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T22" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U22" t="n">
         <v>0.04590510768130049</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I27" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33271,28 +33271,28 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,25 +33748,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33891,28 +33891,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J38" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -33924,7 +33924,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U38" t="n">
         <v>0.1500950924520911</v>
@@ -33967,13 +33967,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I39" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
@@ -33985,25 +33985,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U39" t="n">
         <v>0.06604272567356906</v>
@@ -34043,10 +34043,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I40" t="n">
         <v>25.30901603495698</v>
@@ -34055,7 +34055,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
         <v>125.1220218366646</v>
@@ -34079,10 +34079,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U40" t="n">
         <v>0.04590510768130049</v>
@@ -34128,28 +34128,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -34161,7 +34161,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U41" t="n">
         <v>0.1500950924520911</v>
@@ -34204,13 +34204,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I42" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -34222,25 +34222,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O42" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U42" t="n">
         <v>0.06604272567356906</v>
@@ -34280,10 +34280,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
@@ -34292,7 +34292,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34316,10 +34316,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U43" t="n">
         <v>0.04590510768130049</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I45" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35409,16 +35409,16 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125708</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062839</v>
+        <v>238.658232706284</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766675</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35500,7 +35500,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811315</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35570,25 +35570,25 @@
         <v>146.9548978453263</v>
       </c>
       <c r="K13" t="n">
-        <v>375.3116718572664</v>
+        <v>375.3116718572665</v>
       </c>
       <c r="L13" t="n">
-        <v>547.5562458447063</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712372</v>
       </c>
       <c r="N13" t="n">
-        <v>198.8376634256974</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
-        <v>118.95543570481</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
         <v>329.4423112816032</v>
@@ -35667,7 +35667,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879476</v>
       </c>
       <c r="R14" t="n">
         <v>117.855135640546</v>
@@ -35725,7 +35725,7 @@
         <v>34.56235976916781</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K16" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M16" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O16" t="n">
-        <v>260.4234789221546</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q16" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R16" t="n">
         <v>16.63746735027015</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K17" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766671</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
         <v>329.4423112816032</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35974,7 +35974,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O18" t="n">
         <v>238.8413159742734</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624557</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L19" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M19" t="n">
-        <v>309.1157135712369</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N19" t="n">
-        <v>128.7867795998884</v>
+        <v>382.7003105265221</v>
       </c>
       <c r="O19" t="n">
         <v>118.9554357048098</v>
@@ -36062,7 +36062,7 @@
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36117,16 +36117,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J20" t="n">
-        <v>159.2391669125707</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K20" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36141,7 +36141,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q20" t="n">
-        <v>202.6072676879471</v>
+        <v>202.6072676879476</v>
       </c>
       <c r="R20" t="n">
         <v>117.855135640546</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562342</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>547.5562458447062</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P22" t="n">
-        <v>294.2413903654058</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,19 +36354,19 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>255.0500132399004</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>350.903651820164</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
-        <v>748.4075614369995</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916772</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -36448,13 +36448,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
       </c>
       <c r="P24" t="n">
-        <v>191.691212691723</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
@@ -36521,10 +36521,10 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L25" t="n">
-        <v>367.9115523469812</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M25" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N25" t="n">
         <v>575.5128433954892</v>
@@ -36533,7 +36533,7 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>344.5764559423201</v>
       </c>
       <c r="Q25" t="n">
         <v>240.36368292423</v>
@@ -36591,16 +36591,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J26" t="n">
         <v>598.8903663599629</v>
       </c>
       <c r="K26" t="n">
-        <v>255.0500132399003</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M26" t="n">
         <v>329.4423112816032</v>
@@ -36609,13 +36609,13 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
         <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879471</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R26" t="n">
         <v>288.7178273103004</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916772</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116991</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L28" t="n">
-        <v>464.3199720087247</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>596.0487469893358</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
         <v>452.8039900485105</v>
@@ -36828,22 +36828,22 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K29" t="n">
-        <v>748.4075614369992</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>413.2329841967148</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>334.7730322994721</v>
+        <v>351.1648128330887</v>
       </c>
       <c r="O29" t="n">
         <v>316.1166813548411</v>
@@ -36855,7 +36855,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36919,7 +36919,7 @@
         <v>217.963008964669</v>
       </c>
       <c r="M30" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
         <v>261.0845059811313</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M31" t="n">
-        <v>596.0487469893359</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>452.8039900485101</v>
+        <v>344.5764559423201</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68994474517604</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J32" t="n">
-        <v>159.239166912571</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>350.903651820164</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>748.4075614369995</v>
+        <v>218.999048221564</v>
       </c>
       <c r="R32" t="n">
-        <v>117.855135640546</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562331</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37159,10 +37159,10 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O33" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P33" t="n">
         <v>191.6912126917232</v>
@@ -37229,25 +37229,25 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>375.3116718572664</v>
+        <v>101.9958329642687</v>
       </c>
       <c r="L34" t="n">
-        <v>547.5562458447059</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>596.048746989336</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N34" t="n">
         <v>575.5128433954892</v>
       </c>
       <c r="O34" t="n">
-        <v>450.6733021974601</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,16 +37302,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37323,13 +37323,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562345</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>170.8810658749146</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N37" t="n">
-        <v>575.512843395489</v>
+        <v>456.1835826469317</v>
       </c>
       <c r="O37" t="n">
-        <v>118.9554357048098</v>
+        <v>118.95543570481</v>
       </c>
       <c r="P37" t="n">
         <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
         <v>16.63746735027015</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J38" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062839</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37554,13 +37554,13 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O38" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37633,7 +37633,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
         <v>238.8413159742734</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366646</v>
+        <v>354.7437129757384</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N40" t="n">
-        <v>575.5128433954891</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>542.8637682561045</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>171.0631211972091</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
         <v>70.4719911420766</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,10 +37794,10 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q41" t="n">
         <v>202.6072676879471</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916786</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K43" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>428.2269850961487</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.95543570481</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38040,7 +38040,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916787</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116988</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>125.1220218366646</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M46" t="n">
-        <v>585.1753975240799</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
         <v>128.7867795998884</v>
@@ -38192,10 +38192,10 @@
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>452.8039900485103</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q46" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847541</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
